--- a/Dicionário dados selecionados.xlsx
+++ b/Dicionário dados selecionados.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="66">
   <si>
     <t>Posição Inicial</t>
   </si>
@@ -175,43 +175,6 @@
   </si>
   <si>
     <t>Idade em anos</t>
-  </si>
-  <si>
-    <t>V4742</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Rendimento mensal domiciliar </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>per capita</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <t>Valor</t>
-  </si>
-  <si>
-    <t>R$</t>
-  </si>
-  <si>
-    <t>999 999 999 999</t>
-  </si>
-  <si>
-    <t>Sem declaração</t>
   </si>
   <si>
     <t>V6003</t>
@@ -259,11 +222,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -278,12 +241,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="7"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
       <sz val="7"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -383,8 +340,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -396,42 +380,6 @@
     </xf>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -712,48 +660,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection sqref="A1:G54"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="4" t="s">
+      <c r="E1" s="12"/>
+      <c r="F1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4"/>
+      <c r="G1" s="13"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="5" t="s">
+      <c r="A2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -773,10 +721,10 @@
       <c r="E3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="4">
         <v>1</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="5" t="s">
         <v>11</v>
       </c>
     </row>
@@ -786,10 +734,10 @@
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
-      <c r="F4" s="10">
+      <c r="F4" s="4">
         <v>2</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="5" t="s">
         <v>12</v>
       </c>
     </row>
@@ -799,8 +747,8 @@
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="11" t="s">
+      <c r="F5" s="4"/>
+      <c r="G5" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -820,10 +768,10 @@
       <c r="E6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="4">
         <v>1</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="5" t="s">
         <v>11</v>
       </c>
     </row>
@@ -833,10 +781,10 @@
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
-      <c r="F7" s="10">
+      <c r="F7" s="4">
         <v>2</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="5" t="s">
         <v>12</v>
       </c>
     </row>
@@ -846,8 +794,8 @@
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11" t="s">
+      <c r="F8" s="4"/>
+      <c r="G8" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -867,10 +815,10 @@
       <c r="E9" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="4">
         <v>1</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="5" t="s">
         <v>11</v>
       </c>
     </row>
@@ -880,10 +828,10 @@
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
-      <c r="F10" s="10">
+      <c r="F10" s="4">
         <v>3</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="5" t="s">
         <v>12</v>
       </c>
     </row>
@@ -893,8 +841,8 @@
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="11" t="s">
+      <c r="F11" s="4"/>
+      <c r="G11" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -914,10 +862,10 @@
       <c r="E12" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="4">
         <v>11</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="5" t="s">
         <v>21</v>
       </c>
     </row>
@@ -927,10 +875,10 @@
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
-      <c r="F13" s="10">
+      <c r="F13" s="4">
         <v>12</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="5" t="s">
         <v>22</v>
       </c>
     </row>
@@ -940,10 +888,10 @@
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
-      <c r="F14" s="10">
+      <c r="F14" s="4">
         <v>13</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="5" t="s">
         <v>23</v>
       </c>
     </row>
@@ -953,10 +901,10 @@
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
-      <c r="F15" s="10">
+      <c r="F15" s="4">
         <v>14</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G15" s="5" t="s">
         <v>24</v>
       </c>
     </row>
@@ -966,10 +914,10 @@
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
-      <c r="F16" s="10">
+      <c r="F16" s="4">
         <v>15</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="G16" s="5" t="s">
         <v>25</v>
       </c>
     </row>
@@ -979,10 +927,10 @@
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
-      <c r="F17" s="10">
+      <c r="F17" s="4">
         <v>16</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="G17" s="5" t="s">
         <v>26</v>
       </c>
     </row>
@@ -992,10 +940,10 @@
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
-      <c r="F18" s="10">
+      <c r="F18" s="4">
         <v>17</v>
       </c>
-      <c r="G18" s="11" t="s">
+      <c r="G18" s="5" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1005,10 +953,10 @@
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
-      <c r="F19" s="10">
+      <c r="F19" s="4">
         <v>21</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="G19" s="5" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1018,10 +966,10 @@
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
-      <c r="F20" s="10">
+      <c r="F20" s="4">
         <v>22</v>
       </c>
-      <c r="G20" s="11" t="s">
+      <c r="G20" s="5" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1031,10 +979,10 @@
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
-      <c r="F21" s="10">
+      <c r="F21" s="4">
         <v>23</v>
       </c>
-      <c r="G21" s="11" t="s">
+      <c r="G21" s="5" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1044,10 +992,10 @@
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
-      <c r="F22" s="10">
+      <c r="F22" s="4">
         <v>24</v>
       </c>
-      <c r="G22" s="11" t="s">
+      <c r="G22" s="5" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1057,10 +1005,10 @@
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
-      <c r="F23" s="10">
+      <c r="F23" s="4">
         <v>25</v>
       </c>
-      <c r="G23" s="11" t="s">
+      <c r="G23" s="5" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1070,10 +1018,10 @@
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
-      <c r="F24" s="10">
+      <c r="F24" s="4">
         <v>26</v>
       </c>
-      <c r="G24" s="11" t="s">
+      <c r="G24" s="5" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1083,10 +1031,10 @@
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
-      <c r="F25" s="10">
+      <c r="F25" s="4">
         <v>27</v>
       </c>
-      <c r="G25" s="11" t="s">
+      <c r="G25" s="5" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1096,10 +1044,10 @@
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
-      <c r="F26" s="10">
+      <c r="F26" s="4">
         <v>28</v>
       </c>
-      <c r="G26" s="11" t="s">
+      <c r="G26" s="5" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1109,10 +1057,10 @@
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
-      <c r="F27" s="10">
+      <c r="F27" s="4">
         <v>29</v>
       </c>
-      <c r="G27" s="11" t="s">
+      <c r="G27" s="5" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1122,10 +1070,10 @@
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
-      <c r="F28" s="10">
+      <c r="F28" s="4">
         <v>31</v>
       </c>
-      <c r="G28" s="11" t="s">
+      <c r="G28" s="5" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1135,10 +1083,10 @@
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
-      <c r="F29" s="10">
+      <c r="F29" s="4">
         <v>32</v>
       </c>
-      <c r="G29" s="11" t="s">
+      <c r="G29" s="5" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1148,10 +1096,10 @@
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
-      <c r="F30" s="10">
+      <c r="F30" s="4">
         <v>33</v>
       </c>
-      <c r="G30" s="11" t="s">
+      <c r="G30" s="5" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1161,10 +1109,10 @@
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
-      <c r="F31" s="10">
+      <c r="F31" s="4">
         <v>35</v>
       </c>
-      <c r="G31" s="11" t="s">
+      <c r="G31" s="5" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1174,10 +1122,10 @@
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
-      <c r="F32" s="10">
+      <c r="F32" s="4">
         <v>41</v>
       </c>
-      <c r="G32" s="11" t="s">
+      <c r="G32" s="5" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1187,10 +1135,10 @@
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
-      <c r="F33" s="10">
+      <c r="F33" s="4">
         <v>42</v>
       </c>
-      <c r="G33" s="11" t="s">
+      <c r="G33" s="5" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1200,10 +1148,10 @@
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
-      <c r="F34" s="10">
+      <c r="F34" s="4">
         <v>43</v>
       </c>
-      <c r="G34" s="11" t="s">
+      <c r="G34" s="5" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1213,10 +1161,10 @@
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
-      <c r="F35" s="10">
+      <c r="F35" s="4">
         <v>50</v>
       </c>
-      <c r="G35" s="11" t="s">
+      <c r="G35" s="5" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1226,10 +1174,10 @@
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
-      <c r="F36" s="10">
+      <c r="F36" s="4">
         <v>51</v>
       </c>
-      <c r="G36" s="11" t="s">
+      <c r="G36" s="5" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1239,10 +1187,10 @@
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
-      <c r="F37" s="10">
+      <c r="F37" s="4">
         <v>52</v>
       </c>
-      <c r="G37" s="11" t="s">
+      <c r="G37" s="5" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1252,100 +1200,94 @@
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
-      <c r="F38" s="10">
+      <c r="F38" s="4">
         <v>53</v>
       </c>
-      <c r="G38" s="11" t="s">
+      <c r="G38" s="5" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="36" x14ac:dyDescent="0.25">
-      <c r="A39" s="12">
+      <c r="A39" s="6">
         <v>27</v>
       </c>
-      <c r="B39" s="10">
+      <c r="B39" s="4">
         <v>3</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C39" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10" t="s">
+      <c r="D39" s="4"/>
+      <c r="E39" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F39" s="10" t="s">
+      <c r="F39" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G39" s="11" t="s">
+      <c r="G39" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="13">
-        <v>770</v>
-      </c>
-      <c r="B40" s="14">
-        <v>12</v>
-      </c>
-      <c r="C40" s="14" t="s">
+    <row r="40" spans="1:7" ht="27" x14ac:dyDescent="0.25">
+      <c r="A40" s="8">
+        <v>71</v>
+      </c>
+      <c r="B40" s="9">
+        <v>2</v>
+      </c>
+      <c r="C40" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D40" s="15"/>
+      <c r="D40" s="9" t="s">
+        <v>53</v>
+      </c>
       <c r="E40" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F40" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="G40" s="11" t="s">
+      <c r="F40" s="7">
+        <v>1</v>
+      </c>
+      <c r="G40" s="5" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="A41" s="13"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="15"/>
+      <c r="A41" s="8"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
       <c r="E41" s="9"/>
-      <c r="F41" s="10" t="s">
+      <c r="F41" s="7">
+        <v>2</v>
+      </c>
+      <c r="G41" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G41" s="11" t="s">
+    </row>
+    <row r="42" spans="1:7" ht="54" x14ac:dyDescent="0.25">
+      <c r="A42" s="8"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="7">
+        <v>3</v>
+      </c>
+      <c r="G42" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="13"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="27" x14ac:dyDescent="0.25">
-      <c r="A43" s="8">
-        <v>71</v>
-      </c>
-      <c r="B43" s="9">
-        <v>2</v>
-      </c>
-      <c r="C43" s="9" t="s">
+    <row r="43" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="8"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="7">
+        <v>4</v>
+      </c>
+      <c r="G43" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F43" s="16">
-        <v>1</v>
-      </c>
-      <c r="G43" s="11" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="18" x14ac:dyDescent="0.25">
@@ -1354,50 +1296,50 @@
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
-      <c r="F44" s="16">
-        <v>2</v>
-      </c>
-      <c r="G44" s="11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="54" x14ac:dyDescent="0.25">
+      <c r="F44" s="7">
+        <v>5</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="27" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
       <c r="E45" s="9"/>
-      <c r="F45" s="16">
-        <v>3</v>
-      </c>
-      <c r="G45" s="11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="F45" s="7">
+        <v>6</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
-      <c r="F46" s="16">
-        <v>4</v>
-      </c>
-      <c r="G46" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="F46" s="7">
+        <v>7</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="27" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
-      <c r="F47" s="16">
-        <v>5</v>
-      </c>
-      <c r="G47" s="11" t="s">
-        <v>65</v>
+      <c r="F47" s="7">
+        <v>8</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="27" x14ac:dyDescent="0.25">
@@ -1406,126 +1348,82 @@
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
-      <c r="F48" s="16">
-        <v>6</v>
-      </c>
-      <c r="G48" s="11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F48" s="7">
+        <v>9</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
       <c r="E49" s="9"/>
-      <c r="F49" s="16">
-        <v>7</v>
-      </c>
-      <c r="G49" s="11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="27" x14ac:dyDescent="0.25">
+      <c r="F49" s="7">
+        <v>10</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
       <c r="E50" s="9"/>
-      <c r="F50" s="16">
-        <v>8</v>
-      </c>
-      <c r="G50" s="11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="27" x14ac:dyDescent="0.25">
+      <c r="F50" s="7">
+        <v>11</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
       <c r="D51" s="9"/>
       <c r="E51" s="9"/>
-      <c r="F51" s="16">
-        <v>9</v>
-      </c>
-      <c r="G51" s="11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="A52" s="8"/>
-      <c r="B52" s="9"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="16">
-        <v>10</v>
-      </c>
-      <c r="G52" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="A53" s="8"/>
-      <c r="B53" s="9"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="16">
-        <v>11</v>
-      </c>
-      <c r="G53" s="11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="8"/>
-      <c r="B54" s="9"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="16"/>
-      <c r="G54" s="11" t="s">
+      <c r="F51" s="7"/>
+      <c r="G51" s="5" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="35">
-    <mergeCell ref="A43:A54"/>
-    <mergeCell ref="B43:B54"/>
-    <mergeCell ref="C43:C54"/>
-    <mergeCell ref="D43:D54"/>
-    <mergeCell ref="E43:E54"/>
+  <mergeCells count="30">
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E6:E8"/>
     <mergeCell ref="A12:A38"/>
     <mergeCell ref="B12:B38"/>
     <mergeCell ref="C12:C38"/>
     <mergeCell ref="D12:D38"/>
     <mergeCell ref="E12:E38"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="E40:E42"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="A40:A51"/>
+    <mergeCell ref="B40:B51"/>
+    <mergeCell ref="C40:C51"/>
+    <mergeCell ref="D40:D51"/>
+    <mergeCell ref="E40:E51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
